--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,7 +247,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>SourcePatientId.1</t>
+    <t>SourcePatientId.CX1</t>
   </si>
   <si>
     <t>1</t>
@@ -260,7 +260,7 @@
     <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
   </si>
   <si>
-    <t>SourcePatientId.4</t>
+    <t>SourcePatientId.CX4</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -270,7 +270,7 @@
     <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
   </si>
   <si>
-    <t>SourcePatientId.5</t>
+    <t>SourcePatientId.CX5</t>
   </si>
   <si>
     <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
@@ -587,8 +587,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -618,7 +618,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.83203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-SourcePatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
